--- a/data/suma_class_self_1.xlsx
+++ b/data/suma_class_self_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Pilot Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Pilot Data/summer_pilot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4296E411-9249-6448-81F1-B0E7E5B1EDED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6E936B-D431-D448-8AD7-15B1F4CDE053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15300" xr2:uid="{EFF4ACBB-6610-DA42-B40D-4A354852A8CC}"/>
+    <workbookView xWindow="1180" yWindow="1420" windowWidth="27240" windowHeight="15300" xr2:uid="{EFF4ACBB-6610-DA42-B40D-4A354852A8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Easily bothered by lights/screens or noise</t>
+  </si>
+  <si>
+    <t>Not worse</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -475,6 +478,9 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -483,6 +489,9 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
@@ -491,6 +500,9 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
@@ -499,6 +511,9 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
@@ -507,6 +522,9 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -515,6 +533,9 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
@@ -523,6 +544,9 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
@@ -531,6 +555,9 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
@@ -539,6 +566,9 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
@@ -547,6 +577,9 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
@@ -555,6 +588,9 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
@@ -563,6 +599,9 @@
       <c r="B13" t="s">
         <v>4</v>
       </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
@@ -571,6 +610,9 @@
       <c r="B14" t="s">
         <v>4</v>
       </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
@@ -578,6 +620,9 @@
       </c>
       <c r="B15" t="s">
         <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
